--- a/학습자료/순서배열/고려_연도(왕)_문제_구분통합.xlsx
+++ b/학습자료/순서배열/고려_연도(왕)_문제_구분통합.xlsx
@@ -456,21 +456,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ㄱ. 최충헌의 도방 재건 및 확대 
-ㄴ. 섬학전 마련 
-ㄷ. 몽골의 6차 침입 및 충주 다인철소 전투</t>
+          <t>ㄱ. 정몽주 암살 
+ㄴ. 정치도감 설치 
+ㄷ. 유신지교 15조 발표</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1200년 : 신종 - 최충헌의 도방 재건 및 확대
-ㄷ. 1254년 : 고종 - 몽골의 6차 침입 및 충주 다인철소 전투
-ㄴ. 1304년 : 충렬왕 - 섬학전 마련
+          <t xml:space="preserve">ㄷ. 1127년 : 인종 - 유신지교 15조 발표
+ㄴ. 1347년 : 충목왕 - 정치도감 설치
+ㄱ. 1392년 : 공양왕 - 정몽주 암살
 </t>
         </is>
       </c>
@@ -481,9 +481,9 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ㄱ. 몽골 사신 저고여 피살 
-ㄴ. 전주 관노의 난 
-ㄷ. 지눌의 수선사 결사 운동</t>
+          <t>ㄱ. 사림원 설치 
+ㄴ. 대요수국 2차 침입 
+ㄷ. 지원보초 유통</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -493,9 +493,9 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1182년 : 명종 - 전주 관노의 난
-ㄷ. 1204년 : 신종 - 지눌의 수선사 결사 운동
-ㄱ. 1225년 : 고종 - 몽골 사신 저고여 피살
+          <t xml:space="preserve">ㄴ. 1218년 : 고종 - 대요수국 2차 침입
+ㄷ. 1278년 : 충렬왕 - 지원보초 유통
+ㄱ. 1298년 : 충선왕 - 사림원 설치
 </t>
         </is>
       </c>
@@ -506,21 +506,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ㄱ. 정지의 관음포 대첩 
-ㄴ. 도평의사사 건의로 무과 설치 
-ㄷ. 성균관 순수 유학교육기관으로 개편</t>
+          <t>ㄱ. 사림원 설치 
+ㄴ. 쌍성총관부 설치 
+ㄷ. 홍건적의 1차 침입 및 서경 함락</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1367년 : 공민왕 - 성균관 순수 유학교육기관으로 개편
-ㄱ. 1383년 : 우왕 - 정지의 관음포 대첩
-ㄴ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
+          <t xml:space="preserve">ㄴ. 1258년 : 고종 - 쌍성총관부 설치
+ㄱ. 1298년 : 충선왕 - 사림원 설치
+ㄷ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
 </t>
         </is>
       </c>
@@ -531,9 +531,9 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ㄱ. 흥왕사의 변 
-ㄴ. 소금 전매제 실시 
-ㄷ. 최충헌 집권</t>
+          <t>ㄱ. 삼별초 항쟁 
+ㄴ. 상정고금예문 인쇄 
+ㄷ. 무학재 및 무과 폐지</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -543,9 +543,9 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1196년 : 명종 - 최충헌 집권
-ㄴ. 1309년 : 충선왕 - 소금 전매제 실시
-ㄱ. 1363년 : 공민왕 - 흥왕사의 변
+          <t xml:space="preserve">ㄷ. 1133년 : 인종 - 무학재 및 무과 폐지
+ㄴ. 1234년 : 고종 - 상정고금예문 인쇄
+ㄱ. 1270년 : 원종 - 삼별초 항쟁
 </t>
         </is>
       </c>
@@ -556,21 +556,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ㄱ. 탐라총관부 설치 
-ㄴ. 정세운 이방실 개경 수복 
-ㄷ. 이의민 집권</t>
+          <t>ㄱ. 최우 집권 
+ㄴ. 상정고금예문 인쇄 
+ㄷ. 몽골의 6차 침입 및 충주 다인철소 전투</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1183년 : 명종 - 이의민 집권
-ㄱ. 1273년 : 원종 - 탐라총관부 설치
-ㄴ. 1362년 : 공민왕 - 정세운 이방실 개경 수복
+          <t xml:space="preserve">ㄱ. 1219년 : 고종 - 최우 집권
+ㄴ. 1234년 : 고종 - 상정고금예문 인쇄
+ㄷ. 1254년 : 고종 - 몽골의 6차 침입 및 충주 다인철소 전투
 </t>
         </is>
       </c>
@@ -581,9 +581,9 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ㄱ. 기인선상법 실시 
-ㄴ. 천리장성 완공 
-ㄷ. 최초로 지방관 파견</t>
+          <t>ㄱ. 정몽주 암살 
+ㄴ. 정치도감 설치 
+ㄷ. 유신지교 15조 발표</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -593,9 +593,9 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 983년 : 성종 - 최초로 지방관 파견
-ㄴ. 1044년 : 정종 - 천리장성 완공
-ㄱ. 1077년 : 문종 - 기인선상법 실시
+          <t xml:space="preserve">ㄷ. 1127년 : 인종 - 유신지교 15조 발표
+ㄴ. 1347년 : 충목왕 - 정치도감 설치
+ㄱ. 1392년 : 공양왕 - 정몽주 암살
 </t>
         </is>
       </c>
@@ -606,21 +606,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ㄱ. 서경에 대화궁 건립 
-ㄴ. 경정 전시과 시행 
-ㄷ. 동서 대비원 설치</t>
+          <t>ㄱ. 사림원 설치 
+ㄴ. 대요수국 2차 침입 
+ㄷ. 지원보초 유통</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1049년 : 문종 - 동서 대비원 설치
-ㄴ. 1076년 : 문종 - 경정 전시과 시행
-ㄱ. 1129년 : 인종 - 서경에 대화궁 건립
+          <t xml:space="preserve">ㄴ. 1218년 : 고종 - 대요수국 2차 침입
+ㄷ. 1278년 : 충렬왕 - 지원보초 유통
+ㄱ. 1298년 : 충선왕 - 사림원 설치
 </t>
         </is>
       </c>
@@ -631,21 +631,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ㄱ. 기인선상법 실시 
-ㄴ. 개경에 시전 설치 
-ㄷ. 개경에 나성 축조</t>
+          <t>ㄱ. 사림원 설치 
+ㄴ. 쌍성총관부 설치 
+ㄷ. 홍건적의 1차 침입 및 서경 함락</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 919년 : 태조 - 개경에 시전 설치
-ㄷ. 1029년 : 현종 - 개경에 나성 축조
-ㄱ. 1077년 : 문종 - 기인선상법 실시
+          <t xml:space="preserve">ㄴ. 1258년 : 고종 - 쌍성총관부 설치
+ㄱ. 1298년 : 충선왕 - 사림원 설치
+ㄷ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
 </t>
         </is>
       </c>
@@ -656,21 +656,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ㄱ. 송과 국교 수립 
-ㄴ. 묘청의 서경 천도 운동 
-ㄷ. 동북 9성 축조</t>
+          <t>ㄱ. 삼별초 항쟁 
+ㄴ. 상정고금예문 인쇄 
+ㄷ. 무학재 및 무과 폐지</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 962년 : 광종 - 송과 국교 수립
-ㄷ. 1108년 : 예종 - 동북 9성 축조
-ㄴ. 1135년 : 인종 - 묘청의 서경 천도 운동
+          <t xml:space="preserve">ㄷ. 1133년 : 인종 - 무학재 및 무과 폐지
+ㄴ. 1234년 : 고종 - 상정고금예문 인쇄
+ㄱ. 1270년 : 원종 - 삼별초 항쟁
 </t>
         </is>
       </c>
@@ -681,21 +681,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ㄱ. 거란의 2차 침입 
-ㄴ. 동서 대비원 설치 
-ㄷ. 개정 전시과 시행</t>
+          <t>ㄱ. 최우 집권 
+ㄴ. 상정고금예문 인쇄 
+ㄷ. 몽골의 6차 침입 및 충주 다인철소 전투</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 998년 : 목종 - 개정 전시과 시행
-ㄱ. 1010년 : 현종 - 거란의 2차 침입
-ㄴ. 1049년 : 문종 - 동서 대비원 설치
+          <t xml:space="preserve">ㄱ. 1219년 : 고종 - 최우 집권
+ㄴ. 1234년 : 고종 - 상정고금예문 인쇄
+ㄷ. 1254년 : 고종 - 몽골의 6차 침입 및 충주 다인철소 전투
 </t>
         </is>
       </c>

--- a/학습자료/순서배열/고려_연도(왕)_문제_구분통합.xlsx
+++ b/학습자료/순서배열/고려_연도(왕)_문제_구분통합.xlsx
@@ -456,21 +456,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ㄱ. 정몽주 암살 
-ㄴ. 정치도감 설치 
-ㄷ. 유신지교 15조 발표</t>
+          <t>ㄱ. 결혼도감 설치 
+ㄴ. 도병마사 도평의사사로 개칭 
+ㄷ. 황룡사 및 황룡사 9층 목탑 소실</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1127년 : 인종 - 유신지교 15조 발표
-ㄴ. 1347년 : 충목왕 - 정치도감 설치
-ㄱ. 1392년 : 공양왕 - 정몽주 암살
+          <t xml:space="preserve">ㄷ. 1238년 : 고종 - 황룡사 및 황룡사 9층 목탑 소실
+ㄱ. 1274년 : 원종 - 결혼도감 설치
+ㄴ. 1279년 : 충렬왕 - 도병마사 도평의사사로 개칭
 </t>
         </is>
       </c>
@@ -481,21 +481,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ㄱ. 사림원 설치 
-ㄴ. 대요수국 2차 침입 
-ㄷ. 지원보초 유통</t>
+          <t>ㄱ. 정방 폐지(충선왕) 
+ㄴ. 국자감을 국학으로 개칭 
+ㄷ. 원나라 연호 폐지 및 관제 복구</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1218년 : 고종 - 대요수국 2차 침입
-ㄷ. 1278년 : 충렬왕 - 지원보초 유통
-ㄱ. 1298년 : 충선왕 - 사림원 설치
+          <t xml:space="preserve">ㄴ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
+ㄱ. 1298년 : 충선왕 - 정방 폐지(충선왕)
+ㄷ. 1356년 : 공민왕 - 원나라 연호 폐지 및 관제 복구
 </t>
         </is>
       </c>
@@ -506,21 +506,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ㄱ. 사림원 설치 
-ㄴ. 쌍성총관부 설치 
-ㄷ. 홍건적의 1차 침입 및 서경 함락</t>
+          <t>ㄱ. 민지 본조편년강목 저술 
+ㄴ. 최치원 문창후에 추시 및 문묘에 배향 
+ㄷ. 녹과전 실시</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1258년 : 고종 - 쌍성총관부 설치
-ㄱ. 1298년 : 충선왕 - 사림원 설치
-ㄷ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
+          <t xml:space="preserve">ㄴ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
+ㄷ. 1271년 : 원종 - 녹과전 실시
+ㄱ. 1317년 : 충숙왕 - 민지 본조편년강목 저술
 </t>
         </is>
       </c>
@@ -531,21 +531,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ㄱ. 삼별초 항쟁 
-ㄴ. 상정고금예문 인쇄 
-ㄷ. 무학재 및 무과 폐지</t>
+          <t>ㄱ. 국자감 설치 및 정비 
+ㄴ. 이승휴 제왕운기 저술 
+ㄷ. 최충헌 집권</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1133년 : 인종 - 무학재 및 무과 폐지
-ㄴ. 1234년 : 고종 - 상정고금예문 인쇄
-ㄱ. 1270년 : 원종 - 삼별초 항쟁
+          <t xml:space="preserve">ㄱ. 992년 : 성종 - 국자감 설치 및 정비
+ㄷ. 1196년 : 명종 - 최충헌 집권
+ㄴ. 1287년 : 충렬왕 - 이승휴 제왕운기 저술
 </t>
         </is>
       </c>
@@ -556,21 +556,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ㄱ. 최우 집권 
-ㄴ. 상정고금예문 인쇄 
-ㄷ. 몽골의 6차 침입 및 충주 다인철소 전투</t>
+          <t>ㄱ. 최충헌의 교정도감 설치 
+ㄴ. 동북 9성 여진에 반환 
+ㄷ. 거란의 정안국 격파</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1219년 : 고종 - 최우 집권
-ㄴ. 1234년 : 고종 - 상정고금예문 인쇄
-ㄷ. 1254년 : 고종 - 몽골의 6차 침입 및 충주 다인철소 전투
+          <t xml:space="preserve">ㄷ. 986년 : 성종 - 거란의 정안국 격파
+ㄴ. 1109년 : 예종 - 동북 9성 여진에 반환
+ㄱ. 1209년 : 희종 - 최충헌의 교정도감 설치
 </t>
         </is>
       </c>
@@ -581,21 +581,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ㄱ. 정몽주 암살 
-ㄴ. 정치도감 설치 
-ㄷ. 유신지교 15조 발표</t>
+          <t>ㄱ. 결혼도감 설치 
+ㄴ. 도병마사 도평의사사로 개칭 
+ㄷ. 황룡사 및 황룡사 9층 목탑 소실</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1127년 : 인종 - 유신지교 15조 발표
-ㄴ. 1347년 : 충목왕 - 정치도감 설치
-ㄱ. 1392년 : 공양왕 - 정몽주 암살
+          <t xml:space="preserve">ㄷ. 1238년 : 고종 - 황룡사 및 황룡사 9층 목탑 소실
+ㄱ. 1274년 : 원종 - 결혼도감 설치
+ㄴ. 1279년 : 충렬왕 - 도병마사 도평의사사로 개칭
 </t>
         </is>
       </c>
@@ -606,21 +606,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ㄱ. 사림원 설치 
-ㄴ. 대요수국 2차 침입 
-ㄷ. 지원보초 유통</t>
+          <t>ㄱ. 정방 폐지(충선왕) 
+ㄴ. 국자감을 국학으로 개칭 
+ㄷ. 원나라 연호 폐지 및 관제 복구</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1218년 : 고종 - 대요수국 2차 침입
-ㄷ. 1278년 : 충렬왕 - 지원보초 유통
-ㄱ. 1298년 : 충선왕 - 사림원 설치
+          <t xml:space="preserve">ㄴ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
+ㄱ. 1298년 : 충선왕 - 정방 폐지(충선왕)
+ㄷ. 1356년 : 공민왕 - 원나라 연호 폐지 및 관제 복구
 </t>
         </is>
       </c>
@@ -631,21 +631,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ㄱ. 사림원 설치 
-ㄴ. 쌍성총관부 설치 
-ㄷ. 홍건적의 1차 침입 및 서경 함락</t>
+          <t>ㄱ. 민지 본조편년강목 저술 
+ㄴ. 최치원 문창후에 추시 및 문묘에 배향 
+ㄷ. 녹과전 실시</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1258년 : 고종 - 쌍성총관부 설치
-ㄱ. 1298년 : 충선왕 - 사림원 설치
-ㄷ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
+          <t xml:space="preserve">ㄴ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
+ㄷ. 1271년 : 원종 - 녹과전 실시
+ㄱ. 1317년 : 충숙왕 - 민지 본조편년강목 저술
 </t>
         </is>
       </c>
@@ -656,21 +656,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ㄱ. 삼별초 항쟁 
-ㄴ. 상정고금예문 인쇄 
-ㄷ. 무학재 및 무과 폐지</t>
+          <t>ㄱ. 국자감 설치 및 정비 
+ㄴ. 이승휴 제왕운기 저술 
+ㄷ. 최충헌 집권</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1133년 : 인종 - 무학재 및 무과 폐지
-ㄴ. 1234년 : 고종 - 상정고금예문 인쇄
-ㄱ. 1270년 : 원종 - 삼별초 항쟁
+          <t xml:space="preserve">ㄱ. 992년 : 성종 - 국자감 설치 및 정비
+ㄷ. 1196년 : 명종 - 최충헌 집권
+ㄴ. 1287년 : 충렬왕 - 이승휴 제왕운기 저술
 </t>
         </is>
       </c>
@@ -681,21 +681,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ㄱ. 최우 집권 
-ㄴ. 상정고금예문 인쇄 
-ㄷ. 몽골의 6차 침입 및 충주 다인철소 전투</t>
+          <t>ㄱ. 최충헌의 교정도감 설치 
+ㄴ. 동북 9성 여진에 반환 
+ㄷ. 거란의 정안국 격파</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1219년 : 고종 - 최우 집권
-ㄴ. 1234년 : 고종 - 상정고금예문 인쇄
-ㄷ. 1254년 : 고종 - 몽골의 6차 침입 및 충주 다인철소 전투
+          <t xml:space="preserve">ㄷ. 986년 : 성종 - 거란의 정안국 격파
+ㄴ. 1109년 : 예종 - 동북 9성 여진에 반환
+ㄱ. 1209년 : 희종 - 최충헌의 교정도감 설치
 </t>
         </is>
       </c>
